--- a/业绩报表/003029.xlsx
+++ b/业绩报表/003029.xlsx
@@ -1168,45 +1168,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.66</v>
+        <v>0.21</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6539</v>
+        <v>0.21</v>
       </c>
       <c r="K6" t="n">
-        <v>600168913.9400001</v>
+        <v>283341662.91</v>
       </c>
       <c r="L6" t="n">
-        <v>88953417.25</v>
+        <v>27951921.58</v>
       </c>
       <c r="M6" t="n">
-        <v>13.48</v>
+        <v>3.99</v>
       </c>
       <c r="N6" t="n">
-        <v>49.9840792225</v>
+        <v>-2.7527442875</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6905195348</v>
+        <v>3.7762566403</v>
       </c>
       <c r="P6" t="n">
-        <v>5.075424705026</v>
+        <v>5.281553560015</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.562854644124</v>
+        <v>-0.322052988248</v>
       </c>
       <c r="R6" t="n">
-        <v>52.2256075581</v>
-      </c>
-      <c r="S6" t="n">
-        <v>215.6455</v>
-      </c>
-      <c r="T6" t="n">
-        <v>461.7907</v>
-      </c>
+        <v>62.3293607217</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
@@ -1232,32 +1228,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2019Q4</t>
+          <t>2020Q3</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2019年 年报</t>
+          <t>2020年 三季报</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>年报</t>
+          <t>三季报</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2020-12-07 07:10:17</t>
+          <t>2020-12-07 07:57:14</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
